--- a/SchedulingData/dynamic13/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_17.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210.66</v>
+        <v>225.58</v>
       </c>
       <c r="D2" t="n">
-        <v>278.66</v>
+        <v>273.28</v>
       </c>
       <c r="E2" t="n">
-        <v>12.684</v>
+        <v>10.852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>273.56</v>
+        <v>223.18</v>
       </c>
       <c r="D3" t="n">
-        <v>323.26</v>
+        <v>283.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12.284</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.7</v>
+        <v>205.1</v>
       </c>
       <c r="D4" t="n">
-        <v>292.24</v>
+        <v>262.74</v>
       </c>
       <c r="E4" t="n">
-        <v>12.376</v>
+        <v>13.376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>247.9</v>
+        <v>200.4</v>
       </c>
       <c r="D5" t="n">
-        <v>317.58</v>
+        <v>265.06</v>
       </c>
       <c r="E5" t="n">
-        <v>13.352</v>
+        <v>15.124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>317.58</v>
+        <v>252.88</v>
       </c>
       <c r="D6" t="n">
-        <v>374.38</v>
+        <v>295.68</v>
       </c>
       <c r="E6" t="n">
-        <v>10.272</v>
+        <v>12.092</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>292.24</v>
+        <v>265.06</v>
       </c>
       <c r="D7" t="n">
-        <v>329</v>
+        <v>299.54</v>
       </c>
       <c r="E7" t="n">
-        <v>9.34</v>
+        <v>12.316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>323.26</v>
+        <v>273.28</v>
       </c>
       <c r="D8" t="n">
-        <v>373.62</v>
+        <v>332.84</v>
       </c>
       <c r="E8" t="n">
-        <v>8.868</v>
+        <v>8.476000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -599,207 +599,207 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>374.38</v>
+        <v>332.84</v>
       </c>
       <c r="D9" t="n">
-        <v>425.36</v>
+        <v>386.7</v>
       </c>
       <c r="E9" t="n">
-        <v>7.304</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>425.36</v>
+        <v>295.68</v>
       </c>
       <c r="D10" t="n">
-        <v>462.44</v>
+        <v>355.2</v>
       </c>
       <c r="E10" t="n">
-        <v>4.236</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>260.12</v>
+        <v>299.54</v>
       </c>
       <c r="D11" t="n">
-        <v>337.32</v>
+        <v>345.16</v>
       </c>
       <c r="E11" t="n">
-        <v>13.348</v>
+        <v>8.884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>373.62</v>
+        <v>345.16</v>
       </c>
       <c r="D12" t="n">
-        <v>426.22</v>
+        <v>436.76</v>
       </c>
       <c r="E12" t="n">
-        <v>6.708</v>
+        <v>4.804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>224.34</v>
+        <v>217.5</v>
       </c>
       <c r="D13" t="n">
-        <v>293.32</v>
+        <v>278.56</v>
       </c>
       <c r="E13" t="n">
-        <v>14.288</v>
+        <v>14.144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>278.66</v>
+        <v>278.56</v>
       </c>
       <c r="D14" t="n">
-        <v>339.28</v>
+        <v>328.26</v>
       </c>
       <c r="E14" t="n">
-        <v>8.731999999999999</v>
+        <v>10.304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>462.44</v>
+        <v>283.2</v>
       </c>
       <c r="D15" t="n">
-        <v>501.82</v>
+        <v>326.74</v>
       </c>
       <c r="E15" t="n">
-        <v>1.428</v>
+        <v>12.096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>501.82</v>
+        <v>328.26</v>
       </c>
       <c r="D16" t="n">
-        <v>570.86</v>
+        <v>377.9</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>570.86</v>
+        <v>326.74</v>
       </c>
       <c r="D17" t="n">
-        <v>623.58</v>
+        <v>377.1</v>
       </c>
       <c r="E17" t="n">
-        <v>27.408</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>426.22</v>
+        <v>386.7</v>
       </c>
       <c r="D18" t="n">
-        <v>500.88</v>
+        <v>431.32</v>
       </c>
       <c r="E18" t="n">
-        <v>4.332</v>
+        <v>1.888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>339.28</v>
+        <v>431.32</v>
       </c>
       <c r="D19" t="n">
-        <v>409.6</v>
+        <v>504.34</v>
       </c>
       <c r="E19" t="n">
-        <v>5.82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -808,169 +808,169 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>409.6</v>
+        <v>262.74</v>
       </c>
       <c r="D20" t="n">
-        <v>482.1</v>
+        <v>327.64</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>482.1</v>
+        <v>377.1</v>
       </c>
       <c r="D21" t="n">
-        <v>528.9</v>
+        <v>439.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.62</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>528.9</v>
+        <v>355.2</v>
       </c>
       <c r="D22" t="n">
-        <v>638.96</v>
+        <v>402.9</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>337.32</v>
+        <v>327.64</v>
       </c>
       <c r="D23" t="n">
-        <v>378.48</v>
+        <v>404.64</v>
       </c>
       <c r="E23" t="n">
-        <v>10.852</v>
+        <v>4.916</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>293.32</v>
+        <v>402.9</v>
       </c>
       <c r="D24" t="n">
-        <v>347.48</v>
+        <v>474.8</v>
       </c>
       <c r="E24" t="n">
-        <v>10.492</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>329</v>
+        <v>504.34</v>
       </c>
       <c r="D25" t="n">
-        <v>378.26</v>
+        <v>555.8200000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>5.544</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>638.96</v>
+        <v>377.9</v>
       </c>
       <c r="D26" t="n">
-        <v>694.36</v>
+        <v>414.16</v>
       </c>
       <c r="E26" t="n">
-        <v>27.14</v>
+        <v>4.464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>623.58</v>
+        <v>439.7</v>
       </c>
       <c r="D27" t="n">
-        <v>678.64</v>
+        <v>508.68</v>
       </c>
       <c r="E27" t="n">
-        <v>25.032</v>
+        <v>2.752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>378.48</v>
+        <v>555.8200000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>413.78</v>
+        <v>590.8200000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>8.452</v>
+        <v>24.172</v>
       </c>
     </row>
     <row r="29">
@@ -979,117 +979,117 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>413.78</v>
+        <v>474.8</v>
       </c>
       <c r="D29" t="n">
-        <v>458.08</v>
+        <v>514.76</v>
       </c>
       <c r="E29" t="n">
-        <v>5.152</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>378.26</v>
+        <v>590.8200000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>433.48</v>
+        <v>648.14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.632</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>458.08</v>
+        <v>404.64</v>
       </c>
       <c r="D31" t="n">
-        <v>497.6</v>
+        <v>469.76</v>
       </c>
       <c r="E31" t="n">
-        <v>2.82</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>347.48</v>
+        <v>436.76</v>
       </c>
       <c r="D32" t="n">
-        <v>397.68</v>
+        <v>482.06</v>
       </c>
       <c r="E32" t="n">
-        <v>6.112</v>
+        <v>2.404</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>397.68</v>
+        <v>414.16</v>
       </c>
       <c r="D33" t="n">
-        <v>458.2</v>
+        <v>471.96</v>
       </c>
       <c r="E33" t="n">
-        <v>2.68</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>678.64</v>
+        <v>471.96</v>
       </c>
       <c r="D34" t="n">
-        <v>733.74</v>
+        <v>536.39</v>
       </c>
       <c r="E34" t="n">
-        <v>22.612</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>497.6</v>
+        <v>482.06</v>
       </c>
       <c r="D35" t="n">
-        <v>568.76</v>
+        <v>568.75</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,18 +1108,18 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>568.76</v>
+        <v>568.75</v>
       </c>
       <c r="D36" t="n">
-        <v>636.16</v>
+        <v>621.25</v>
       </c>
       <c r="E36" t="n">
         <v>26.92</v>
@@ -1127,40 +1127,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>500.88</v>
+        <v>469.76</v>
       </c>
       <c r="D37" t="n">
-        <v>589.76</v>
+        <v>552.35</v>
       </c>
       <c r="E37" t="n">
-        <v>1.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>589.76</v>
+        <v>552.35</v>
       </c>
       <c r="D38" t="n">
-        <v>658.71</v>
+        <v>592.4299999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>458.2</v>
+        <v>508.68</v>
       </c>
       <c r="D39" t="n">
-        <v>524.84</v>
+        <v>578.6799999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="40">
@@ -1188,93 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>524.84</v>
+        <v>578.6799999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>583.66</v>
+        <v>679.42</v>
       </c>
       <c r="E40" t="n">
-        <v>26.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>433.48</v>
+        <v>514.76</v>
       </c>
       <c r="D41" t="n">
-        <v>498.24</v>
+        <v>616.87</v>
       </c>
       <c r="E41" t="n">
-        <v>0.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>498.24</v>
+        <v>616.87</v>
       </c>
       <c r="D42" t="n">
-        <v>574.73</v>
+        <v>676.47</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>583.66</v>
+        <v>536.39</v>
       </c>
       <c r="D43" t="n">
-        <v>636.76</v>
+        <v>608.49</v>
       </c>
       <c r="E43" t="n">
-        <v>23.628</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>574.73</v>
+        <v>592.4299999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>634.65</v>
+        <v>660.65</v>
       </c>
       <c r="E44" t="n">
-        <v>27.668</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
